--- a/Assets/Resources/Kosugi/PatrolSwingPattern.xlsx
+++ b/Assets/Resources/Kosugi/PatrolSwingPattern.xlsx
@@ -55,9 +55,6 @@
     <t>left</t>
   </si>
   <si>
-    <t>forward</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>front</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -512,7 +512,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -556,28 +556,28 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -585,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -597,22 +597,22 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -620,16 +620,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -638,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -789,7 +789,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K13">
-      <formula1>"left,right,forward"</formula1>
+      <formula1>"left,right,front"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
